--- a/contratos_controle/modelos_excel/resumo_saldo_cliente.xlsx
+++ b/contratos_controle/modelos_excel/resumo_saldo_cliente.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\dvmsys\contratos_controle\modelos_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Developer\XAMPP\htdocs\erp_sistema\contratos_controle\modelos_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -142,13 +142,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,38 +516,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
